--- a/rakuten_meisai/apple456.xlsx
+++ b/rakuten_meisai/apple456.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zinkoko/projects/python100days/rakuten_meisai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7E1E1F1E-156F-3A40-8383-446F90B858E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9D979D4E-2D20-3045-AC3E-7F7E719D8883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{A90D790E-1710-CC48-AD6C-4D2F30C3C490}"/>
+    <workbookView xWindow="35020" yWindow="1980" windowWidth="20920" windowHeight="18320" xr2:uid="{A90D790E-1710-CC48-AD6C-4D2F30C3C490}"/>
   </bookViews>
   <sheets>
     <sheet name="apple456" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -547,6 +547,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -676,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +699,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -720,6 +736,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E448ABAF-FCBC-3F42-B78C-844D4970DD00}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1090,525 +1118,823 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
         <v>45775</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>650</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6">
+      <c r="D2" s="3">
+        <f>+COUNTA(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
         <v>45775</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D11" si="0">+COUNTA(C3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>45775</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>650</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6">
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
         <v>45770</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>650</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>45770</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>650</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>45770</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>45762</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>45762</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>45758</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>980</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>45753</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="9">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <f>+SUM(D2:D11)</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <f>+SUM(C2:C11)</f>
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10">
         <v>45788</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>980</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="9">
+      <c r="D12" s="17">
+        <f>+COUNTA(C12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10">
         <v>45783</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12">
+      <c r="D13" s="17">
+        <f t="shared" ref="D13:D46" si="1">+COUNTA(C13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <f>+SUM(D12:D13)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="12">
+        <f>+SUM(C12:C13)</f>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13">
         <v>45831</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12">
+      <c r="D14" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13">
         <v>45831</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15">
         <v>2840</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="12">
+      <c r="D15" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13">
         <v>45831</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12">
+      <c r="D16" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13">
         <v>45831</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12">
+      <c r="D17" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13">
         <v>45831</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15">
         <v>2400</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12">
+      <c r="D18" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13">
         <v>45828</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12">
+      <c r="D19" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13">
         <v>45828</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12">
+      <c r="D20" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13">
         <v>45828</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15">
         <v>320</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12">
+      <c r="D21" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13">
         <v>45828</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="12">
+      <c r="D22" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13">
         <v>45827</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15">
         <v>2320</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="12">
+      <c r="D23" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13">
         <v>45827</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="15">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12">
+      <c r="D24" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13">
         <v>45825</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15">
         <v>1320</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12">
+      <c r="D25" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13">
         <v>45825</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12">
+      <c r="D26" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13">
         <v>45825</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="12">
+      <c r="D27" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13">
         <v>45825</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="15">
         <v>4000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12">
+      <c r="D28" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13">
         <v>45821</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15">
         <v>2720</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="12">
+      <c r="D29" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13">
         <v>45821</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="14">
+      <c r="B30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="15">
         <v>2400</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12">
+      <c r="D30" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13">
         <v>45821</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="12">
+      <c r="D31" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13">
         <v>45821</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="B32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12">
+      <c r="D32" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13">
         <v>45820</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="B33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15">
         <v>320</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="12">
+      <c r="D33" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13">
         <v>45819</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15">
         <v>3700</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="12">
+      <c r="D34" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13">
         <v>45819</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="B35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15">
         <v>2400</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="12">
+      <c r="D35" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13">
         <v>45818</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="14">
+      <c r="B36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="15">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="12">
+      <c r="D36" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13">
         <v>45818</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="B37" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="12">
+      <c r="D37" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="13">
         <v>45818</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="14">
+      <c r="B38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="12">
+      <c r="D38" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="13">
         <v>45818</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="14">
+      <c r="B39" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="12">
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13">
         <v>45818</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="14">
+      <c r="B40" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="12">
+      <c r="D40" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="13">
         <v>45818</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="14">
+      <c r="B41" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="12">
+      <c r="D41" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="13">
         <v>45818</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="14">
+      <c r="B42" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="15">
         <v>2400</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="12">
+      <c r="D42" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="13">
         <v>45814</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="B43" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="15">
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="12">
+      <c r="D43" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="13">
         <v>45811</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="14">
+      <c r="B44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="15">
         <v>480</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="12">
+      <c r="D44" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="13">
         <v>45811</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="14">
+      <c r="B45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="15">
         <v>160</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="12">
+      <c r="D45" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="13">
         <v>45811</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="B46" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="15">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
+      <c r="D46" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="15">
+        <f>+SUM(D14:D46)</f>
+        <v>33</v>
+      </c>
+      <c r="F46" s="18">
+        <f>+SUM(C14:C46)</f>
+        <v>47210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="6">
         <f>+SUM(C2:C46)</f>
         <v>52710</v>
+      </c>
+      <c r="E48" s="6">
+        <f>+E46+E13+E11</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
